--- a/public/static/力量物资资金-救援力量情况统计表.xlsx
+++ b/public/static/力量物资资金-救援力量情况统计表.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="41">
   <si>
     <t>救援力量情况（累计人数）</t>
   </si>
@@ -76,61 +76,61 @@
     <t>党员突击队</t>
   </si>
   <si>
+    <t>填写单位：抢险救援组（市应急管理局）</t>
+  </si>
+  <si>
+    <t>说明：各项内容由各工作组负责填报，牵头单位协调相关成员单位整理后填写，县（区）抗震救灾指挥部协助。</t>
+  </si>
+  <si>
+    <t>专业力量:安能、...</t>
+  </si>
+  <si>
+    <t>上报数据所属区县名称，可通过下拉框选择</t>
+  </si>
+  <si>
+    <t>统计截止时间，精确到天，可下拉自动填充当前日期</t>
+  </si>
+  <si>
+    <t>本区县累计解放军人数</t>
+  </si>
+  <si>
+    <t>本区县累计武警部队人数</t>
+  </si>
+  <si>
+    <t>本区县累计民兵人数</t>
+  </si>
+  <si>
+    <t>本区县累计消防救援人数</t>
+  </si>
+  <si>
+    <t>本区县累计森林消防人数</t>
+  </si>
+  <si>
+    <t>本区县累计专业力量:安能、…人数</t>
+  </si>
+  <si>
+    <t>本区县累计应急安全生产人数</t>
+  </si>
+  <si>
+    <t>本区县累计医疗救援累计人数</t>
+  </si>
+  <si>
+    <t>本县区交通通信电力等力量累计人数</t>
+  </si>
+  <si>
+    <t>本县区空中救援累计人数</t>
+  </si>
+  <si>
+    <t>本县区支援抢修队累计人数</t>
+  </si>
+  <si>
+    <t>本县区党员突击队累计人数</t>
+  </si>
+  <si>
+    <t>雅安市县区列表</t>
+  </si>
+  <si>
     <t>雨城区</t>
-  </si>
-  <si>
-    <t>填写单位：抢险救援组（市应急管理局）</t>
-  </si>
-  <si>
-    <t>说明：各项内容由各工作组负责填报，牵头单位协调相关成员单位整理后填写，县（区）抗震救灾指挥部协助。</t>
-  </si>
-  <si>
-    <t>专业力量:安能、...</t>
-  </si>
-  <si>
-    <t>上报数据所属区县名称，可通过下拉框选择</t>
-  </si>
-  <si>
-    <t>统计截止时间，精确到天，可下拉自动填充当前日期</t>
-  </si>
-  <si>
-    <t>本区县累计解放军人数</t>
-  </si>
-  <si>
-    <t>本区县累计武警部队人数</t>
-  </si>
-  <si>
-    <t>本区县累计民兵人数</t>
-  </si>
-  <si>
-    <t>本区县累计消防救援人数</t>
-  </si>
-  <si>
-    <t>本区县累计森林消防人数</t>
-  </si>
-  <si>
-    <t>本区县累计专业力量:安能、…人数</t>
-  </si>
-  <si>
-    <t>本区县累计应急安全生产人数</t>
-  </si>
-  <si>
-    <t>本区县累计医疗救援累计人数</t>
-  </si>
-  <si>
-    <t>本县区交通通信电力等力量累计人数</t>
-  </si>
-  <si>
-    <t>本县区空中救援累计人数</t>
-  </si>
-  <si>
-    <t>本县区支援抢修队累计人数</t>
-  </si>
-  <si>
-    <t>本县区党员突击队累计人数</t>
-  </si>
-  <si>
-    <t>雅安市县区列表</t>
   </si>
   <si>
     <t>名山区</t>
@@ -568,7 +568,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -636,6 +636,19 @@
         <color auto="1"/>
       </right>
       <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
         <color auto="1"/>
       </top>
       <bottom style="thin">
@@ -645,50 +658,10 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
@@ -820,7 +793,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -832,34 +805,34 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -944,7 +917,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -988,7 +961,7 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1003,24 +976,24 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1033,11 +1006,8 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1363,10 +1333,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A3" sqref="$A3:$XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.5" defaultRowHeight="14.1" customHeight="1"/>
@@ -1395,7 +1365,7 @@
       <c r="M1" s="19"/>
       <c r="N1" s="29"/>
     </row>
-    <row r="2" customHeight="1" spans="1:15">
+    <row r="2" customHeight="1" spans="1:16">
       <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
@@ -1439,16 +1409,27 @@
         <v>14</v>
       </c>
       <c r="O2" s="30"/>
-    </row>
-    <row r="3" s="15" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A3" s="22" t="s">
+      <c r="P2" s="15"/>
+    </row>
+    <row r="3" s="15" customFormat="1" customHeight="1" spans="1:14">
+      <c r="A3" s="22"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+    </row>
+    <row r="4" customHeight="1" spans="1:14">
+      <c r="A4" s="25" t="s">
         <v>15</v>
-      </c>
-      <c r="B3" s="23"/>
-    </row>
-    <row r="4" customHeight="1" spans="1:14">
-      <c r="A4" s="24" t="s">
-        <v>16</v>
       </c>
       <c r="B4" s="25"/>
       <c r="C4" s="25"/>
@@ -1462,11 +1443,11 @@
       <c r="K4" s="25"/>
       <c r="L4" s="25"/>
       <c r="M4" s="25"/>
-      <c r="N4" s="31"/>
+      <c r="N4" s="25"/>
     </row>
     <row r="5" ht="26.45" customHeight="1" spans="1:14">
       <c r="A5" s="26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="27"/>
       <c r="C5" s="27"/>
@@ -1480,7 +1461,7 @@
       <c r="K5" s="27"/>
       <c r="L5" s="27"/>
       <c r="M5" s="27"/>
-      <c r="N5" s="32"/>
+      <c r="N5" s="31"/>
     </row>
     <row r="11" customHeight="1" spans="2:2">
       <c r="B11" s="16"/>
@@ -1572,7 +1553,7 @@
         <v>7</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I2" s="12" t="s">
         <v>9</v>
@@ -1595,46 +1576,46 @@
     </row>
     <row r="3" s="7" customFormat="1" ht="42" customHeight="1" spans="1:14">
       <c r="A3" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="C3" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="D3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="E3" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="F3" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="G3" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="H3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="I3" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="J3" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="K3" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="L3" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="L3" s="13" t="s">
+      <c r="M3" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="M3" s="13" t="s">
+      <c r="N3" s="13" t="s">
         <v>31</v>
-      </c>
-      <c r="N3" s="13" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1664,12 +1645,12 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:1">
       <c r="A1" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:1">
       <c r="A2" s="3" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:1">

--- a/public/static/力量物资资金-救援力量情况统计表.xlsx
+++ b/public/static/力量物资资金-救援力量情况统计表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12375" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="救援力量情况" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
   <si>
     <t>救援力量情况（累计人数）</t>
   </si>
@@ -128,6 +128,9 @@
   </si>
   <si>
     <t>雅安市县区列表</t>
+  </si>
+  <si>
+    <t>当前时间</t>
   </si>
   <si>
     <t>雨城区</t>
@@ -165,7 +168,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm:ss"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="29">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -185,6 +188,14 @@
       <color rgb="FF000000"/>
       <name val="等线"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -568,7 +579,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -588,6 +599,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -772,167 +798,176 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -940,25 +975,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -970,46 +1005,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1335,139 +1370,139 @@
   </sheetPr>
   <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="$A3:$XFD3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.5" defaultRowHeight="14.1" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.3333333333333" style="16" customWidth="1"/>
-    <col min="2" max="7" width="22.5" style="17"/>
-    <col min="8" max="8" width="20.25" style="17" customWidth="1"/>
-    <col min="9" max="16384" width="22.5" style="17"/>
+    <col min="1" max="1" width="31.3333333333333" style="19" customWidth="1"/>
+    <col min="2" max="7" width="22.5" style="20"/>
+    <col min="8" max="8" width="20.25" style="20" customWidth="1"/>
+    <col min="9" max="16384" width="22.5" style="20"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:14">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="29"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="32"/>
     </row>
     <row r="2" customHeight="1" spans="1:16">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="21" t="s">
+      <c r="H2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="21" t="s">
+      <c r="I2" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="21" t="s">
+      <c r="J2" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="21" t="s">
+      <c r="K2" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="21" t="s">
+      <c r="L2" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="21" t="s">
+      <c r="M2" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="21" t="s">
+      <c r="N2" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="30"/>
-      <c r="P2" s="15"/>
-    </row>
-    <row r="3" s="15" customFormat="1" customHeight="1" spans="1:14">
-      <c r="A3" s="22"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="18"/>
+    </row>
+    <row r="3" s="18" customFormat="1" customHeight="1" spans="1:14">
+      <c r="A3" s="25"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
     </row>
     <row r="4" customHeight="1" spans="1:14">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
     </row>
     <row r="5" ht="26.45" customHeight="1" spans="1:14">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="31"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="34"/>
     </row>
     <row r="11" customHeight="1" spans="2:2">
-      <c r="B11" s="16"/>
+      <c r="B11" s="19"/>
     </row>
     <row r="12" customHeight="1" spans="2:2">
-      <c r="B12" s="28"/>
+      <c r="B12" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1475,9 +1510,12 @@
     <mergeCell ref="A4:N4"/>
     <mergeCell ref="A5:N5"/>
   </mergeCells>
-  <dataValidations count="1">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3 A6:A13 A15:A1048576">
       <formula1>雅安市县区列表!$A$2:$A$9</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3">
+      <formula1>雅安市县区列表!$B$2</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1505,116 +1543,116 @@
     <col min="6" max="7" width="16.3333333333333" style="1" customWidth="1"/>
     <col min="8" max="8" width="16" style="1" customWidth="1"/>
     <col min="9" max="9" width="15.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="15.3333333333333" style="8" customWidth="1"/>
-    <col min="11" max="11" width="18.6666666666667" style="8" customWidth="1"/>
-    <col min="12" max="12" width="14.3333333333333" style="8" customWidth="1"/>
-    <col min="13" max="13" width="15.8333333333333" style="8" customWidth="1"/>
-    <col min="14" max="14" width="16.1666666666667" style="8" customWidth="1"/>
+    <col min="10" max="10" width="15.3333333333333" style="11" customWidth="1"/>
+    <col min="11" max="11" width="18.6666666666667" style="11" customWidth="1"/>
+    <col min="12" max="12" width="14.3333333333333" style="11" customWidth="1"/>
+    <col min="13" max="13" width="15.8333333333333" style="11" customWidth="1"/>
+    <col min="14" max="14" width="16.1666666666667" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="6" customFormat="1" customHeight="1" spans="1:14">
-      <c r="A1" s="9" t="s">
+    <row r="1" s="9" customFormat="1" customHeight="1" spans="1:14">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="14"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="17"/>
     </row>
     <row r="2" customHeight="1" spans="1:14">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="L2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="M2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="12" t="s">
+      <c r="N2" s="15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" s="7" customFormat="1" ht="42" customHeight="1" spans="1:14">
-      <c r="A3" s="13" t="s">
+    <row r="3" s="10" customFormat="1" ht="42" customHeight="1" spans="1:14">
+      <c r="A3" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="J3" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="K3" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="L3" s="13" t="s">
+      <c r="L3" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="M3" s="13" t="s">
+      <c r="M3" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="N3" s="13" t="s">
+      <c r="N3" s="16" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1632,61 +1670,76 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.1" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.1" customHeight="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="19" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.375"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:1">
+    <row r="1" customHeight="1" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" customHeight="1" spans="1:1">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:1">
-      <c r="A3" s="4" t="s">
+    <row r="2" customHeight="1" spans="1:2">
+      <c r="A2" s="4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="4" customHeight="1" spans="1:1">
-      <c r="A4" s="5" t="s">
+      <c r="B2" s="5">
+        <f ca="1">NOW()</f>
+        <v>45604.8103240741</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:2">
+      <c r="A3" s="6" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="5" customHeight="1" spans="1:1">
-      <c r="A5" s="4" t="s">
+      <c r="B3" s="7"/>
+    </row>
+    <row r="4" customHeight="1" spans="1:2">
+      <c r="A4" s="8" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="6" customHeight="1" spans="1:1">
-      <c r="A6" s="4" t="s">
+      <c r="B4" s="7"/>
+    </row>
+    <row r="5" customHeight="1" spans="1:2">
+      <c r="A5" s="6" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="7" customHeight="1" spans="1:1">
-      <c r="A7" s="4" t="s">
+      <c r="B5" s="7"/>
+    </row>
+    <row r="6" customHeight="1" spans="1:2">
+      <c r="A6" s="6" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="8" customHeight="1" spans="1:1">
-      <c r="A8" s="4" t="s">
+      <c r="B6" s="7"/>
+    </row>
+    <row r="7" customHeight="1" spans="1:2">
+      <c r="A7" s="6" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="9" customHeight="1" spans="1:1">
-      <c r="A9" s="4" t="s">
+      <c r="B7" s="7"/>
+    </row>
+    <row r="8" customHeight="1" spans="1:2">
+      <c r="A8" s="6" t="s">
         <v>40</v>
       </c>
+      <c r="B8" s="7"/>
+    </row>
+    <row r="9" customHeight="1" spans="1:2">
+      <c r="A9" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
